--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62F13B-F439-4963-AD7D-984DCE2D21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C960C1-942D-409A-A0FB-E474F4B438CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>sr no</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>creating a profile page ui</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +770,12 @@
       <c r="B19" s="1">
         <v>45436</v>
       </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C960C1-942D-409A-A0FB-E474F4B438CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429FE2D-BD85-4927-92ED-E2C6992266F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>sr no</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>creating a profile page ui</t>
+  </si>
+  <si>
+    <t>changes butto text color</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +784,26 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" s="1">
+        <v>45439</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>45440</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429FE2D-BD85-4927-92ED-E2C6992266F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7E636-7D1A-44FD-AA65-95872C377830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>sr no</t>
   </si>
@@ -105,7 +105,10 @@
     <t>creating a profile page ui</t>
   </si>
   <si>
-    <t>changes butto text color</t>
+    <t>make category component and make routing and make table with search bar and add button</t>
+  </si>
+  <si>
+    <t>changes button text color</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
         <v>45439</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -803,6 +806,23 @@
       </c>
       <c r="B21" s="1">
         <v>45440</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45441</v>
       </c>
     </row>
   </sheetData>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7E636-7D1A-44FD-AA65-95872C377830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4227BA4B-E71D-406B-A5AE-EE4C1B32CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>sr no</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>changes button text color</t>
+  </si>
+  <si>
+    <t>do validation edit and add and fixed pagination userlist and orderlist and what can improve</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +827,15 @@
       <c r="B22" s="1">
         <v>45441</v>
       </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4227BA4B-E71D-406B-A5AE-EE4C1B32CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE5DF7-AAED-4663-9B38-7B3B225643E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>sr no</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>do validation edit and add and fixed pagination userlist and orderlist and what can improve</t>
+  </si>
+  <si>
+    <t>image,checkbox validation do</t>
   </si>
 </sst>
 </file>
@@ -473,9 +476,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -837,6 +840,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45442</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEE5DF7-AAED-4663-9B38-7B3B225643E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777777AA-B649-44CD-B009-D4612F4A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>sr no</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>image,checkbox validation do</t>
+  </si>
+  <si>
+    <t>make routing customer view comp and customerview fixed and make responsive and profile and product details fixed scrollbar and width</t>
   </si>
 </sst>
 </file>
@@ -158,10 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,6 +861,95 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777777AA-B649-44CD-B009-D4612F4A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FC242-70DB-425D-B0C2-6B6FF8C7FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>sr no</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>make routing customer view comp and customerview fixed and make responsive and profile and product details fixed scrollbar and width</t>
+  </si>
+  <si>
+    <t>make navlink dashboad and it conditionly render then add content as card and make it responsive</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +893,15 @@
       <c r="B29" s="1">
         <v>45446</v>
       </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -915,37 +927,40 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FC242-70DB-425D-B0C2-6B6FF8C7FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59E2A3-A918-4B1B-B44E-337B8143B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>sr no</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>make navlink dashboad and it conditionly render then add content as card and make it responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make profile menu list profile and logout and add icon on dashboard and fixed ipad mini sized </t>
+  </si>
+  <si>
+    <t>half day</t>
   </si>
 </sst>
 </file>
@@ -485,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +916,15 @@
       <c r="B30" s="1">
         <v>45447</v>
       </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59E2A3-A918-4B1B-B44E-337B8143B9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDFEA8-FF65-48F7-8D8D-590B53675D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>sr no</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>half day</t>
+  </si>
+  <si>
+    <t>fixed button add &amp; edit component in dashboard card icon title and add menu design and conditionaly render the proper value</t>
+  </si>
+  <si>
+    <t>make another 4 card different design and first card in one row and other are 1 row 2 card</t>
   </si>
 </sst>
 </file>
@@ -491,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +939,15 @@
       <c r="B31" s="1">
         <v>45448</v>
       </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -940,6 +955,15 @@
       </c>
       <c r="B32" s="1">
         <v>45449</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">

--- a/myWorkRecord.xlsx
+++ b/myWorkRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company_workStatus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDFEA8-FF65-48F7-8D8D-590B53675D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9A05B2-9109-41F3-B1EB-67BBDD08C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{B17A294C-326E-4CE6-969D-DF31A9FF5360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>sr no</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>make another 4 card different design and first card in one row and other are 1 row 2 card</t>
+  </si>
+  <si>
+    <t>make responsive product,deault value show in card,make home page and move all the section data ,and make routing for home component</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9B361-BF5A-439E-8D42-125E33476358}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,40 +969,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>45450</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
